--- a/DesignerConfigs/Datas/test/demos.xlsx
+++ b/DesignerConfigs/Datas/test/demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF3B1C-F1A5-4FC7-B8F4-834BFFE3FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3364D24-7AE4-4297-B58E-8E0B68E5BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33510" yWindow="1260" windowWidth="24120" windowHeight="14850" activeTab="10" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
+    <workbookView xWindow="29700" yWindow="900" windowWidth="24120" windowHeight="14850" firstSheet="5" activeTab="15" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="bean" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,11 @@
     <sheet name="tag" sheetId="9" r:id="rId9"/>
     <sheet name="text" sheetId="10" r:id="rId10"/>
     <sheet name="nullable" sheetId="11" r:id="rId11"/>
+    <sheet name="convert" sheetId="12" r:id="rId12"/>
+    <sheet name="hierarcy_title" sheetId="13" r:id="rId13"/>
+    <sheet name="inherient" sheetId="14" r:id="rId14"/>
+    <sheet name="default" sheetId="15" r:id="rId15"/>
+    <sheet name="enum" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
   <si>
     <t>##</t>
   </si>
@@ -678,6 +683,90 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_item_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int&amp;convert=EFunctionItemId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级丹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶丹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_item_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_item_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shapes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Shape&amp;sep=,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle,10,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line,10,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parabola,10,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int&amp;defalut=-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemQuality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREEN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RED</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +879,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,14 +1317,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1272,94 +1364,94 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1375,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773A8A04-DD9C-4582-B06D-CB93246E1625}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1445,7 +1537,7 @@
       <c r="E6">
         <v>1.3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>36412.423726851855</v>
       </c>
       <c r="G6" t="s">
@@ -1465,16 +1557,551 @@
       <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9205F05-6029-4B91-A222-0B07101E69AC}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD6079F-C3B6-4D74-A02C-13534398E139}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>1001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <v>1002</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>1003</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>1004</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>1001</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>1002</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>1003</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <v>1004</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320DA053-D1B6-443F-8F89-C536DF357360}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C659BA-B70B-42E1-9DD5-21254FC6A461}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791517E2-6B83-43D6-956D-9806555B6417}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1679,11 +2306,11 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1785,7 +2412,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2721,7 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2245,11 +2872,11 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">

--- a/DesignerConfigs/Datas/test/demos.xlsx
+++ b/DesignerConfigs/Datas/test/demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3364D24-7AE4-4297-B58E-8E0B68E5BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF5661-C92D-4B2F-AB0A-81F39332457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="900" windowWidth="24120" windowHeight="14850" firstSheet="5" activeTab="15" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
+    <workbookView xWindow="2700" yWindow="420" windowWidth="24120" windowHeight="14850" firstSheet="5" activeTab="8" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="bean" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
   <si>
     <t>##</t>
   </si>
@@ -408,10 +408,6 @@
   </si>
   <si>
     <t>测试数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅开启 --export_test_data 选项才导出</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -767,6 +763,26 @@
   </si>
   <si>
     <t>RED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>--export_exclude_tags test 时不导出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>--export_exclude_tags dev 时不导出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>--export_exclude_tags release 时不导出</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -867,12 +883,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,18 +896,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,33 +1255,33 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -1317,142 +1336,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1489,19 +1508,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1509,19 +1528,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>125</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1537,11 +1556,11 @@
       <c r="E6">
         <v>1.3</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>36412.423726851855</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1549,19 +1568,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1601,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1609,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1655,41 +1674,41 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1699,14 +1718,14 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -1924,33 +1943,33 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1958,16 +1977,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
         <v>141</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>142</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2003,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2017,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791517E2-6B83-43D6-956D-9806555B6417}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2085,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2093,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2140,21 +2159,21 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -2163,21 +2182,21 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2295,22 +2314,22 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2319,27 +2338,27 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2432,14 +2451,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -2448,14 +2467,14 @@
       <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -2721,7 +2740,7 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2867,16 +2886,16 @@
       <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -2888,16 +2907,16 @@
       <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -3030,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD007F-F810-4504-8A00-43CAA2EBDDD6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3093,7 +3112,7 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3107,7 +3126,7 @@
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3120,8 +3139,8 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
-        <v>95</v>
+      <c r="D10" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3134,24 +3153,36 @@
       <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
-        <v>95</v>
+      <c r="D11" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
+      <c r="D12" s="11" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,5 +3204,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/demos.xlsx
+++ b/DesignerConfigs/Datas/test/demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF5661-C92D-4B2F-AB0A-81F39332457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9468EE5-3441-4323-8FAC-46B96F0F485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="420" windowWidth="24120" windowHeight="14850" firstSheet="5" activeTab="8" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
+    <workbookView xWindow="29655" yWindow="1725" windowWidth="25335" windowHeight="12915" firstSheet="5" activeTab="15" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="bean" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="155">
   <si>
     <t>##</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rewards</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -192,14 +188,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>items2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Reward&amp;sep=,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1001,1,奖励1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -212,30 +200,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>items3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Reward&amp;sep=,|</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1001,1,奖励1|1002,20,奖励2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>stages</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>list,Stage&amp;multi_rows=1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>任务1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -339,10 +311,6 @@
   </si>
   <si>
     <t>list,int&amp;ref=item.TbItem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,reward&amp;sep=,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -710,14 +678,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>shapes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Shape&amp;sep=,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Circle,10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -742,10 +702,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int&amp;defalut=-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>quality</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -783,6 +739,50 @@
   </si>
   <si>
     <t>--export_exclude_tags release 时不导出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items2&amp;sep=,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items3&amp;sep=,|</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*stages</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Stage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stages2&amp;multi_rows=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,reward</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards&amp;sep=,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>stages&amp;multi_rows=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Shape</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shapes&amp;sep=,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2&amp;defalut=-1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -904,6 +904,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,28 +1255,28 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1288,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1302,13 +1302,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2001</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1349,37 +1349,37 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,10 +1400,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,10 +1412,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1432,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1456,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,10 +1468,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1508,39 +1508,39 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
         <v>36412.423726851855</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1568,19 +1568,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1612,15 +1612,15 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1674,24 +1674,24 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,42 +1699,42 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1742,19 +1742,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1001</v>
@@ -1768,13 +1768,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>1002</v>
@@ -1788,13 +1788,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>1003</v>
@@ -1808,13 +1808,13 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>1004</v>
@@ -1828,19 +1828,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>1001</v>
@@ -1854,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>1002</v>
@@ -1874,13 +1874,13 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H13">
         <v>1003</v>
@@ -1894,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <v>1004</v>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,33 +1943,33 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1977,16 +1977,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2022,21 +2022,21 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2065,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791517E2-6B83-43D6-956D-9806555B6417}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,15 +2088,15 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2157,55 +2157,55 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2254,13 +2254,13 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2281,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2307,67 +2307,67 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1022</v>
@@ -2390,7 +2390,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>3001</v>
@@ -2399,19 +2399,19 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
         <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2428,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D863F36-9EBC-4A0D-830F-620BE7EE9FB0}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2439,71 +2439,87 @@
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1001</v>
@@ -2511,19 +2527,37 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>1001</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>1002</v>
@@ -2531,19 +2565,37 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <v>1002</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>1003</v>
@@ -2551,19 +2603,37 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>1003</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>1004</v>
@@ -2571,25 +2641,43 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9">
+        <v>1004</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1001</v>
@@ -2597,19 +2685,37 @@
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1001</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>1002</v>
@@ -2617,19 +2723,37 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>1002</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <v>1003</v>
@@ -2637,19 +2761,37 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>1003</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>1004</v>
@@ -2657,11 +2799,31 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>1004</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,45 +2851,45 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2741,7 +2903,7 @@
         <v>500</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2772,24 +2934,24 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2797,16 +2959,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2814,16 +2976,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -2831,19 +2993,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +3019,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2873,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2881,51 +3043,51 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2936,7 +3098,7 @@
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>1001</v>
@@ -2945,13 +3107,13 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2962,7 +3124,7 @@
         <v>1004</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1001</v>
@@ -2971,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3012,15 +3174,15 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3028,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3049,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD007F-F810-4504-8A00-43CAA2EBDDD6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3071,18 +3233,18 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3090,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3109,80 +3271,80 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>152</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>152</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>153</v>
+        <v>84</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3190,7 +3352,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3198,7 +3360,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/demos.xlsx
+++ b/DesignerConfigs/Datas/test/demos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9468EE5-3441-4323-8FAC-46B96F0F485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84955F94-8B87-4EC4-9E97-9E44138F96AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="1725" windowWidth="25335" windowHeight="12915" firstSheet="5" activeTab="15" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
+    <workbookView xWindow="31515" yWindow="2985" windowWidth="25335" windowHeight="12915" firstSheet="5" activeTab="15" xr2:uid="{E1874648-0200-4215-8BF2-64204BAF8C54}"/>
   </bookViews>
   <sheets>
     <sheet name="bean" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="156">
   <si>
     <t>##</t>
   </si>
@@ -783,6 +783,10 @@
   </si>
   <si>
     <t>x2&amp;defalut=-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2063,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791517E2-6B83-43D6-956D-9806555B6417}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2077,49 +2081,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
         <v>138</v>
       </c>
     </row>
